--- a/docs/ipv6.xlsx
+++ b/docs/ipv6.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna3-mj10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44484C9-9E12-4DB5-832C-A01F8D69E76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D2BA63-648E-4311-B9BC-D56CDB7D5C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" activeTab="3" xr2:uid="{7FE375F5-321D-414C-8E22-F6ABB98679D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{7FE375F5-321D-414C-8E22-F6ABB98679D1}"/>
   </bookViews>
   <sheets>
     <sheet name="IPv6" sheetId="1" r:id="rId1"/>
     <sheet name="WildCard" sheetId="3" r:id="rId2"/>
     <sheet name="ACL" sheetId="2" r:id="rId3"/>
     <sheet name="NAT" sheetId="4" r:id="rId4"/>
+    <sheet name="PPP" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="114">
   <si>
     <t>Global</t>
   </si>
@@ -67,12 +68,6 @@
   </si>
   <si>
     <t>FIN</t>
-  </si>
-  <si>
-    <t>INI BIN</t>
-  </si>
-  <si>
-    <t>FIN BIN</t>
   </si>
   <si>
     <t>bits</t>
@@ -240,9 +235,6 @@
     <t>IPv4 Multicast</t>
   </si>
   <si>
-    <t>Equivalencia</t>
-  </si>
-  <si>
     <t>260:3EFF:FEDD:9D80</t>
   </si>
   <si>
@@ -412,6 +404,96 @@
   </si>
   <si>
     <t>sobrecarga</t>
+  </si>
+  <si>
+    <t>Equiv</t>
+  </si>
+  <si>
+    <t>INI BINARIO</t>
+  </si>
+  <si>
+    <t>FIN BINARIO</t>
+  </si>
+  <si>
+    <t>Ethernet</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>dot1Q</t>
+  </si>
+  <si>
+    <t>WAN</t>
+  </si>
+  <si>
+    <t>HDLC</t>
+  </si>
+  <si>
+    <t>PPP</t>
+  </si>
+  <si>
+    <t>PAP</t>
+  </si>
+  <si>
+    <t>CHAP</t>
+  </si>
+  <si>
+    <t>High-Speed Data Link Control</t>
+  </si>
+  <si>
+    <t>Point to Point Protocol</t>
+  </si>
+  <si>
+    <t>Password Authentication Protocol</t>
+  </si>
+  <si>
+    <t>Challenge Hash Authentication Protocol</t>
+  </si>
+  <si>
+    <t>Usos</t>
+  </si>
+  <si>
+    <t>Medios Guiados (UTP / Fiber / Coaxial)</t>
+  </si>
+  <si>
+    <t>IEEE 802.11</t>
+  </si>
+  <si>
+    <t>Enlaces Troncales (VLANs)</t>
+  </si>
+  <si>
+    <t>Medios No Guiados (Wi-Fi)</t>
+  </si>
+  <si>
+    <t>Definicion</t>
+  </si>
+  <si>
+    <t>Caracteristicas</t>
+  </si>
+  <si>
+    <t>Establece un Enlace utilizando Bits de control</t>
+  </si>
+  <si>
+    <t>Utiliza HDLC e implementa las subcapas LCP/NCP</t>
+  </si>
+  <si>
+    <t>PPP con validacion mediante usuario de DB local</t>
+  </si>
+  <si>
+    <t>PPP con validacion mediante comunicación cifrada</t>
+  </si>
+  <si>
+    <t>MAC Destino - MAC Origen - Protocolo</t>
+  </si>
+  <si>
+    <t>Duracion - MAC Destino - MAC Origen - MAC Router</t>
+  </si>
+  <si>
+    <t>Trama Ethernet - Trunking Protocol ID - VLAN ID</t>
+  </si>
+  <si>
+    <t>Datos Relevantes</t>
   </si>
 </sst>
 </file>
@@ -421,7 +503,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,16 +531,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -487,17 +589,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -516,13 +607,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,8 +621,41 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +664,34 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -551,44 +699,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -599,6 +811,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3607A6A9-8082-4809-9B79-172FE572FB6A}" name="Tabla2" displayName="Tabla2" ref="G1:M5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="G1:M5" xr:uid="{3607A6A9-8082-4809-9B79-172FE572FB6A}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{AA31D93C-1E6B-47BD-9BAB-141D796C146B}" name="IPv6" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{5C8F2BAA-64E7-4462-A81E-F5A88F62BD09}" name="INI" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{06E41CF1-E248-4111-99C1-B7EC53704CD6}" name="INI BINARIO" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{D7275916-9FEE-4DED-BE97-4A8E2AD1285C}" name="FIN" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{72A97152-2EAE-4ADD-86EA-25D651616D75}" name="FIN BINARIO" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{A9B234D0-A3F8-44DE-A993-0FBBAA5A42D3}" name="bits" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{01760512-F76A-44BA-BAEB-022CB5B97B96}" name="Equiv" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EF93EE40-24F0-4E52-9943-156E6BE5F0FC}" name="Tabla6" displayName="Tabla6" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3" xr:uid="{EF93EE40-24F0-4E52-9943-156E6BE5F0FC}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{51D84CC2-5AAF-4E43-A1D6-58D84F2B942B}" name="ACL"/>
+    <tableColumn id="2" xr3:uid="{CEEBD205-8D58-4D77-B976-9AA049126190}" name="Access Control List"/>
+    <tableColumn id="3" xr3:uid="{262871DE-2352-4C91-A883-994C27984EC9}" name="Router"/>
+    <tableColumn id="4" xr3:uid="{C19A3D86-3F76-4B0D-B251-DF7867DFE188}" name="Numeracion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -901,206 +1142,212 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="2.5703125" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4">
+        <v>3</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="4">
+        <v>7</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="4">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="M5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:E5"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1109,618 +1356,749 @@
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="B5" sqref="B5:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="33" width="1.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="28"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>1</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0</v>
+      </c>
+      <c r="J2" s="19">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0</v>
+      </c>
+      <c r="L2" s="18">
+        <v>0</v>
+      </c>
+      <c r="M2" s="18">
+        <v>0</v>
+      </c>
+      <c r="N2" s="18">
+        <v>0</v>
+      </c>
+      <c r="O2" s="18">
+        <v>0</v>
+      </c>
+      <c r="P2" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>0</v>
+      </c>
+      <c r="R2" s="19">
+        <v>0</v>
+      </c>
+      <c r="S2" s="18">
+        <v>0</v>
+      </c>
+      <c r="T2" s="18">
+        <v>0</v>
+      </c>
+      <c r="U2" s="18">
+        <v>0</v>
+      </c>
+      <c r="V2" s="18">
+        <v>0</v>
+      </c>
+      <c r="W2" s="18">
+        <v>0</v>
+      </c>
+      <c r="X2" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0</v>
+      </c>
+      <c r="J3" s="21">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0</v>
+      </c>
+      <c r="M3" s="22">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22">
+        <v>0</v>
+      </c>
+      <c r="O3" s="22">
+        <v>0</v>
+      </c>
+      <c r="P3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>0</v>
+      </c>
+      <c r="R3" s="21">
+        <v>0</v>
+      </c>
+      <c r="S3" s="22">
+        <v>0</v>
+      </c>
+      <c r="T3" s="22">
+        <v>0</v>
+      </c>
+      <c r="U3" s="22">
+        <v>0</v>
+      </c>
+      <c r="V3" s="22">
+        <v>1</v>
+      </c>
+      <c r="W3" s="22">
+        <v>1</v>
+      </c>
+      <c r="X3" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="22">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="24">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25">
+        <v>1</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
+        <v>1</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0</v>
+      </c>
+      <c r="J4" s="24">
+        <v>0</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0</v>
+      </c>
+      <c r="M4" s="25">
+        <v>0</v>
+      </c>
+      <c r="N4" s="25">
+        <v>0</v>
+      </c>
+      <c r="O4" s="25">
+        <v>0</v>
+      </c>
+      <c r="P4" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>0</v>
+      </c>
+      <c r="R4" s="24">
+        <v>0</v>
+      </c>
+      <c r="S4" s="25">
+        <v>0</v>
+      </c>
+      <c r="T4" s="25">
+        <v>0</v>
+      </c>
+      <c r="U4" s="25">
+        <v>0</v>
+      </c>
+      <c r="V4" s="25">
+        <v>0</v>
+      </c>
+      <c r="W4" s="25">
+        <v>0</v>
+      </c>
+      <c r="X4" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1</v>
+      </c>
+      <c r="L6" s="15">
+        <v>1</v>
+      </c>
+      <c r="M6" s="15">
+        <v>1</v>
+      </c>
+      <c r="N6" s="15">
+        <v>1</v>
+      </c>
+      <c r="O6" s="15">
+        <v>1</v>
+      </c>
+      <c r="P6" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>1</v>
+      </c>
+      <c r="R6" s="15">
+        <v>1</v>
+      </c>
+      <c r="S6" s="15">
+        <v>1</v>
+      </c>
+      <c r="T6" s="15">
+        <v>1</v>
+      </c>
+      <c r="U6" s="15">
+        <v>1</v>
+      </c>
+      <c r="V6" s="15">
+        <v>1</v>
+      </c>
+      <c r="W6" s="15">
+        <v>1</v>
+      </c>
+      <c r="X6" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="15"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="5">
-        <v>0</v>
-      </c>
-      <c r="S2" s="6">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6">
-        <v>0</v>
-      </c>
-      <c r="U2" s="6">
-        <v>0</v>
-      </c>
-      <c r="V2" s="6">
-        <v>0</v>
-      </c>
-      <c r="W2" s="6">
-        <v>0</v>
-      </c>
-      <c r="X2" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0</v>
-      </c>
-      <c r="M3" s="9">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
-      <c r="O3" s="9">
-        <v>0</v>
-      </c>
-      <c r="P3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>0</v>
-      </c>
-      <c r="R3" s="8">
-        <v>0</v>
-      </c>
-      <c r="S3" s="9">
-        <v>0</v>
-      </c>
-      <c r="T3" s="9">
-        <v>0</v>
-      </c>
-      <c r="U3" s="9">
-        <v>0</v>
-      </c>
-      <c r="V3" s="9">
-        <v>1</v>
-      </c>
-      <c r="W3" s="9">
-        <v>1</v>
-      </c>
-      <c r="X3" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="9">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="9">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
-      <c r="S4" s="6">
-        <v>0</v>
-      </c>
-      <c r="T4" s="6">
-        <v>0</v>
-      </c>
-      <c r="U4" s="6">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6">
-        <v>0</v>
-      </c>
-      <c r="W4" s="6">
-        <v>0</v>
-      </c>
-      <c r="X4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="11">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+    </row>
+    <row r="11" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1740,7 +2118,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,77 +2126,80 @@
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1826,64 +2207,189 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B609058-6C9F-4F8D-97C5-32EE13D61928}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
       <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1D8DD0-60E4-423F-AD20-BD9D51CCA901}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/ipv6.xlsx
+++ b/docs/ipv6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna3-mj10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D2BA63-648E-4311-B9BC-D56CDB7D5C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DB6934-6DD5-43CC-AB5A-35BE0EE13B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{7FE375F5-321D-414C-8E22-F6ABB98679D1}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" activeTab="5" xr2:uid="{7FE375F5-321D-414C-8E22-F6ABB98679D1}"/>
   </bookViews>
   <sheets>
     <sheet name="IPv6" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ACL" sheetId="2" r:id="rId3"/>
     <sheet name="NAT" sheetId="4" r:id="rId4"/>
     <sheet name="PPP" sheetId="5" r:id="rId5"/>
+    <sheet name="Routing" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="143">
   <si>
     <t>Global</t>
   </si>
@@ -494,6 +495,93 @@
   </si>
   <si>
     <t>Datos Relevantes</t>
+  </si>
+  <si>
+    <t>MASK</t>
+  </si>
+  <si>
+    <t>10.54.11.24</t>
+  </si>
+  <si>
+    <t>10.96.11.2</t>
+  </si>
+  <si>
+    <t>10.50.20.10</t>
+  </si>
+  <si>
+    <t>10.32.15.18</t>
+  </si>
+  <si>
+    <t>10.128.40.25</t>
+  </si>
+  <si>
+    <t>10.150.11.20</t>
+  </si>
+  <si>
+    <t>10.48.0.0</t>
+  </si>
+  <si>
+    <t>10.96.0.0</t>
+  </si>
+  <si>
+    <t>10.32.0.0</t>
+  </si>
+  <si>
+    <t>10.128.0.0</t>
+  </si>
+  <si>
+    <t>10.144.0.0</t>
+  </si>
+  <si>
+    <t>10.50.0.0</t>
+  </si>
+  <si>
+    <t>10.54.0.0</t>
+  </si>
+  <si>
+    <t>10.150.0.0</t>
+  </si>
+  <si>
+    <t>10.50.16.0</t>
+  </si>
+  <si>
+    <t>10.128.32.0</t>
+  </si>
+  <si>
+    <t>10.32.15.0</t>
+  </si>
+  <si>
+    <t>10.50.20.0</t>
+  </si>
+  <si>
+    <t>10.54.11.0</t>
+  </si>
+  <si>
+    <t>10.96.11.0</t>
+  </si>
+  <si>
+    <t>10.128.40.0</t>
+  </si>
+  <si>
+    <t>10.150.11.0</t>
+  </si>
+  <si>
+    <t>10.32.15.16</t>
+  </si>
+  <si>
+    <t>10.54.11.16</t>
+  </si>
+  <si>
+    <t>10.128.40.16</t>
+  </si>
+  <si>
+    <t>10.150.11.16</t>
+  </si>
+  <si>
+    <t>10.50.20.8</t>
+  </si>
+  <si>
+    <t>10.128.40.24</t>
   </si>
 </sst>
 </file>
@@ -715,9 +803,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +835,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,21 +853,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -800,6 +882,12 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -814,16 +902,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3607A6A9-8082-4809-9B79-172FE572FB6A}" name="Tabla2" displayName="Tabla2" ref="G1:M5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3607A6A9-8082-4809-9B79-172FE572FB6A}" name="Tabla2" displayName="Tabla2" ref="G1:M5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="G1:M5" xr:uid="{3607A6A9-8082-4809-9B79-172FE572FB6A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AA31D93C-1E6B-47BD-9BAB-141D796C146B}" name="IPv6" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{5C8F2BAA-64E7-4462-A81E-F5A88F62BD09}" name="INI" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{06E41CF1-E248-4111-99C1-B7EC53704CD6}" name="INI BINARIO" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{D7275916-9FEE-4DED-BE97-4A8E2AD1285C}" name="FIN" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{72A97152-2EAE-4ADD-86EA-25D651616D75}" name="FIN BINARIO" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{A9B234D0-A3F8-44DE-A993-0FBBAA5A42D3}" name="bits" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{01760512-F76A-44BA-BAEB-022CB5B97B96}" name="Equiv" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AA31D93C-1E6B-47BD-9BAB-141D796C146B}" name="IPv6" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{5C8F2BAA-64E7-4462-A81E-F5A88F62BD09}" name="INI" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{06E41CF1-E248-4111-99C1-B7EC53704CD6}" name="INI BINARIO" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{D7275916-9FEE-4DED-BE97-4A8E2AD1285C}" name="FIN" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{72A97152-2EAE-4ADD-86EA-25D651616D75}" name="FIN BINARIO" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{A9B234D0-A3F8-44DE-A993-0FBBAA5A42D3}" name="bits" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{01760512-F76A-44BA-BAEB-022CB5B97B96}" name="Equiv" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -837,6 +925,22 @@
     <tableColumn id="2" xr3:uid="{CEEBD205-8D58-4D77-B976-9AA049126190}" name="Access Control List"/>
     <tableColumn id="3" xr3:uid="{262871DE-2352-4C91-A883-994C27984EC9}" name="Router"/>
     <tableColumn id="4" xr3:uid="{C19A3D86-3F76-4B0D-B251-DF7867DFE188}" name="Numeracion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA614760-2E6B-480A-88E0-0CB1ACCEC591}" name="Tabla1" displayName="Tabla1" ref="A1:G9" totalsRowShown="0">
+  <autoFilter ref="A1:G9" xr:uid="{EA614760-2E6B-480A-88E0-0CB1ACCEC591}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{21BA0247-3C4B-4516-A272-3ABFF592DB30}" name="MASK"/>
+    <tableColumn id="2" xr3:uid="{CCD3D0E6-23EA-4793-AB58-28F4FA3D2EC9}" name="10.32.15.18"/>
+    <tableColumn id="3" xr3:uid="{7F4E370B-A734-4E4E-94C1-7F4BE9724A82}" name="10.50.20.10"/>
+    <tableColumn id="4" xr3:uid="{78E8D31A-E09E-4577-8B9D-0B1119D8F669}" name="10.54.11.24"/>
+    <tableColumn id="5" xr3:uid="{48C280DF-29A9-48FC-931D-0A03703ABD69}" name="10.96.11.2"/>
+    <tableColumn id="6" xr3:uid="{5E5E0C3A-1B96-4B76-864F-E844820CE642}" name="10.128.40.25"/>
+    <tableColumn id="7" xr3:uid="{F3FE2100-15E2-4AA9-B835-9E7EF2CF1817}" name="10.150.11.20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1159,13 +1263,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
         <v>22</v>
@@ -1190,19 +1294,19 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="4"/>
@@ -1229,19 +1333,19 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="4"/>
@@ -1268,19 +1372,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="4"/>
@@ -1307,15 +1411,15 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>17</v>
@@ -1366,148 +1470,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="26" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="26" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="26" t="s">
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="29"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="19">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18">
-        <v>1</v>
-      </c>
-      <c r="G2" s="18">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>1</v>
-      </c>
-      <c r="I2" s="18">
-        <v>0</v>
-      </c>
-      <c r="J2" s="19">
-        <v>0</v>
-      </c>
-      <c r="K2" s="18">
-        <v>0</v>
-      </c>
-      <c r="L2" s="18">
-        <v>0</v>
-      </c>
-      <c r="M2" s="18">
-        <v>0</v>
-      </c>
-      <c r="N2" s="18">
-        <v>0</v>
-      </c>
-      <c r="O2" s="18">
-        <v>0</v>
-      </c>
-      <c r="P2" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="18">
-        <v>0</v>
-      </c>
-      <c r="R2" s="19">
-        <v>0</v>
-      </c>
-      <c r="S2" s="18">
-        <v>0</v>
-      </c>
-      <c r="T2" s="18">
-        <v>0</v>
-      </c>
-      <c r="U2" s="18">
-        <v>0</v>
-      </c>
-      <c r="V2" s="18">
-        <v>0</v>
-      </c>
-      <c r="W2" s="18">
-        <v>0</v>
-      </c>
-      <c r="X2" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="20">
+      <c r="B2" s="18">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17">
+        <v>1</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18">
+        <v>0</v>
+      </c>
+      <c r="K2" s="17">
+        <v>0</v>
+      </c>
+      <c r="L2" s="17">
+        <v>0</v>
+      </c>
+      <c r="M2" s="17">
+        <v>0</v>
+      </c>
+      <c r="N2" s="17">
+        <v>0</v>
+      </c>
+      <c r="O2" s="17">
+        <v>0</v>
+      </c>
+      <c r="P2" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>0</v>
+      </c>
+      <c r="R2" s="18">
+        <v>0</v>
+      </c>
+      <c r="S2" s="17">
+        <v>0</v>
+      </c>
+      <c r="T2" s="17">
+        <v>0</v>
+      </c>
+      <c r="U2" s="17">
+        <v>0</v>
+      </c>
+      <c r="V2" s="17">
+        <v>0</v>
+      </c>
+      <c r="W2" s="17">
+        <v>0</v>
+      </c>
+      <c r="X2" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1515,201 +1619,201 @@
       <c r="A3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="21">
-        <v>0</v>
-      </c>
-      <c r="C3" s="22">
-        <v>0</v>
-      </c>
-      <c r="D3" s="22">
-        <v>0</v>
-      </c>
-      <c r="E3" s="22">
-        <v>0</v>
-      </c>
-      <c r="F3" s="22">
-        <v>0</v>
-      </c>
-      <c r="G3" s="22">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22">
-        <v>0</v>
-      </c>
-      <c r="I3" s="22">
-        <v>0</v>
-      </c>
-      <c r="J3" s="21">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22">
-        <v>0</v>
-      </c>
-      <c r="L3" s="22">
-        <v>0</v>
-      </c>
-      <c r="M3" s="22">
-        <v>0</v>
-      </c>
-      <c r="N3" s="22">
-        <v>0</v>
-      </c>
-      <c r="O3" s="22">
-        <v>0</v>
-      </c>
-      <c r="P3" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="22">
-        <v>0</v>
-      </c>
-      <c r="R3" s="21">
-        <v>0</v>
-      </c>
-      <c r="S3" s="22">
-        <v>0</v>
-      </c>
-      <c r="T3" s="22">
-        <v>0</v>
-      </c>
-      <c r="U3" s="22">
-        <v>0</v>
-      </c>
-      <c r="V3" s="22">
-        <v>1</v>
-      </c>
-      <c r="W3" s="22">
-        <v>1</v>
-      </c>
-      <c r="X3" s="22">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="21">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="22">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="23">
+      <c r="B3" s="20">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0</v>
+      </c>
+      <c r="L3" s="21">
+        <v>0</v>
+      </c>
+      <c r="M3" s="21">
+        <v>0</v>
+      </c>
+      <c r="N3" s="21">
+        <v>0</v>
+      </c>
+      <c r="O3" s="21">
+        <v>0</v>
+      </c>
+      <c r="P3" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>0</v>
+      </c>
+      <c r="R3" s="20">
+        <v>0</v>
+      </c>
+      <c r="S3" s="21">
+        <v>0</v>
+      </c>
+      <c r="T3" s="21">
+        <v>0</v>
+      </c>
+      <c r="U3" s="21">
+        <v>0</v>
+      </c>
+      <c r="V3" s="21">
+        <v>1</v>
+      </c>
+      <c r="W3" s="21">
+        <v>1</v>
+      </c>
+      <c r="X3" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="20">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="21">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="24">
-        <v>0</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0</v>
-      </c>
-      <c r="E4" s="25">
-        <v>0</v>
-      </c>
-      <c r="F4" s="25">
-        <v>1</v>
-      </c>
-      <c r="G4" s="25">
-        <v>0</v>
-      </c>
-      <c r="H4" s="25">
-        <v>1</v>
-      </c>
-      <c r="I4" s="25">
-        <v>0</v>
-      </c>
-      <c r="J4" s="24">
-        <v>0</v>
-      </c>
-      <c r="K4" s="25">
-        <v>0</v>
-      </c>
-      <c r="L4" s="25">
-        <v>0</v>
-      </c>
-      <c r="M4" s="25">
-        <v>0</v>
-      </c>
-      <c r="N4" s="25">
-        <v>0</v>
-      </c>
-      <c r="O4" s="25">
-        <v>0</v>
-      </c>
-      <c r="P4" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="25">
-        <v>0</v>
-      </c>
-      <c r="R4" s="24">
-        <v>0</v>
-      </c>
-      <c r="S4" s="25">
-        <v>0</v>
-      </c>
-      <c r="T4" s="25">
-        <v>0</v>
-      </c>
-      <c r="U4" s="25">
-        <v>0</v>
-      </c>
-      <c r="V4" s="25">
-        <v>0</v>
-      </c>
-      <c r="W4" s="25">
-        <v>0</v>
-      </c>
-      <c r="X4" s="25">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="25">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="25">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="25">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="25">
+      <c r="B4" s="23">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4" s="24">
+        <v>1</v>
+      </c>
+      <c r="I4" s="24">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="24">
+        <v>0</v>
+      </c>
+      <c r="L4" s="24">
+        <v>0</v>
+      </c>
+      <c r="M4" s="24">
+        <v>0</v>
+      </c>
+      <c r="N4" s="24">
+        <v>0</v>
+      </c>
+      <c r="O4" s="24">
+        <v>0</v>
+      </c>
+      <c r="P4" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>0</v>
+      </c>
+      <c r="R4" s="23">
+        <v>0</v>
+      </c>
+      <c r="S4" s="24">
+        <v>0</v>
+      </c>
+      <c r="T4" s="24">
+        <v>0</v>
+      </c>
+      <c r="U4" s="24">
+        <v>0</v>
+      </c>
+      <c r="V4" s="24">
+        <v>0</v>
+      </c>
+      <c r="W4" s="24">
+        <v>0</v>
+      </c>
+      <c r="X4" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="24">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1717,139 +1821,139 @@
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="15">
-        <v>1</v>
-      </c>
-      <c r="C6" s="15">
-        <v>1</v>
-      </c>
-      <c r="D6" s="15">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15">
-        <v>1</v>
-      </c>
-      <c r="H6" s="15">
-        <v>1</v>
-      </c>
-      <c r="I6" s="15">
-        <v>1</v>
-      </c>
-      <c r="J6" s="15">
-        <v>1</v>
-      </c>
-      <c r="K6" s="15">
-        <v>1</v>
-      </c>
-      <c r="L6" s="15">
-        <v>1</v>
-      </c>
-      <c r="M6" s="15">
-        <v>1</v>
-      </c>
-      <c r="N6" s="15">
-        <v>1</v>
-      </c>
-      <c r="O6" s="15">
-        <v>1</v>
-      </c>
-      <c r="P6" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>1</v>
-      </c>
-      <c r="R6" s="15">
-        <v>1</v>
-      </c>
-      <c r="S6" s="15">
-        <v>1</v>
-      </c>
-      <c r="T6" s="15">
-        <v>1</v>
-      </c>
-      <c r="U6" s="15">
-        <v>1</v>
-      </c>
-      <c r="V6" s="15">
-        <v>1</v>
-      </c>
-      <c r="W6" s="15">
-        <v>1</v>
-      </c>
-      <c r="X6" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="15">
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+      <c r="J6" s="14">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14">
+        <v>1</v>
+      </c>
+      <c r="L6" s="14">
+        <v>1</v>
+      </c>
+      <c r="M6" s="14">
+        <v>1</v>
+      </c>
+      <c r="N6" s="14">
+        <v>1</v>
+      </c>
+      <c r="O6" s="14">
+        <v>1</v>
+      </c>
+      <c r="P6" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>1</v>
+      </c>
+      <c r="R6" s="14">
+        <v>1</v>
+      </c>
+      <c r="S6" s="14">
+        <v>1</v>
+      </c>
+      <c r="T6" s="14">
+        <v>1</v>
+      </c>
+      <c r="U6" s="14">
+        <v>1</v>
+      </c>
+      <c r="V6" s="14">
+        <v>1</v>
+      </c>
+      <c r="W6" s="14">
+        <v>1</v>
+      </c>
+      <c r="X6" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1955,39 +2059,39 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2027,78 +2131,78 @@
       <c r="AG9" s="3"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
     </row>
     <row r="11" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2273,8 +2377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1D8DD0-60E4-423F-AD20-BD9D51CCA901}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2303,10 +2407,10 @@
       <c r="A2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="25" t="s">
         <v>110</v>
       </c>
       <c r="D2" s="2"/>
@@ -2316,10 +2420,10 @@
       <c r="A3" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="25" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2327,10 +2431,10 @@
       <c r="A4" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="25" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2338,7 +2442,7 @@
       <c r="A6" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="25" t="s">
         <v>104</v>
       </c>
       <c r="C6" t="s">
@@ -2392,4 +2496,236 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E74205-DB5B-4E93-A7DF-421EE68E9546}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>